--- a/biology/Médecine/Hôpital_Antoine-Béclère/Hôpital_Antoine-Béclère.xlsx
+++ b/biology/Médecine/Hôpital_Antoine-Béclère/Hôpital_Antoine-Béclère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Antoine-B%C3%A9cl%C3%A8re</t>
+          <t>Hôpital_Antoine-Béclère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L’hôpital Antoine-Béclère est un centre hospitalier universitaire (CHU) public du GHU Assistance publique - Hôpitaux de Paris - Université Paris-Saclay, situé à Clamart dans les Hauts-de-Seine, en France. Sa compétence s’étend sur quatorze communes des Hauts-de-Seine : Clamart, Issy-les-Moulineaux, Vanves, Malakoff, Montrouge, Meudon, Châtillon, Bagneux, Fontenay-aux-Roses, Le Plessis-Robinson, Sceaux, Bourg-la-Reine, Châtenay-Malabry et Antony[1]. Il porte le nom d'Antoine Béclère, pionnier français de la radiologie. Sa capacité d'accueil est de 395 lits[2].
+L’hôpital Antoine-Béclère est un centre hospitalier universitaire (CHU) public du GHU Assistance publique - Hôpitaux de Paris - Université Paris-Saclay, situé à Clamart dans les Hauts-de-Seine, en France. Sa compétence s’étend sur quatorze communes des Hauts-de-Seine : Clamart, Issy-les-Moulineaux, Vanves, Malakoff, Montrouge, Meudon, Châtillon, Bagneux, Fontenay-aux-Roses, Le Plessis-Robinson, Sceaux, Bourg-la-Reine, Châtenay-Malabry et Antony. Il porte le nom d'Antoine Béclère, pionnier français de la radiologie. Sa capacité d'accueil est de 395 lits.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Antoine-B%C3%A9cl%C3%A8re</t>
+          <t>Hôpital_Antoine-Béclère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Spécialités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital est spécialisé dans l'hypertension artérielle pulmonaire, la procréation médicalement assistée, les maladies métaboliques du foie chez l'enfant, la maladie de Willebrand et les troubles du sommeil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital est spécialisé dans l'hypertension artérielle pulmonaire, la procréation médicalement assistée, les maladies métaboliques du foie chez l'enfant, la maladie de Willebrand et les troubles du sommeil.
 Il accueille les urgences médico-chirurgicales adultes et pédiatriques ainsi que les urgences gynécologiques associée à sa maternité de type III.
 Il possède l'ensemble des activités médico-chirurgicales d'un hôpital universitaire avec des lits d'hospitalisation en Médecine Interne, Hématologie, Cardiologie, Hépato-Gastro-Entérologie, Pédiatrie, Néonatologie. Pour les activités chirurgicales, elles concernent la chirurgie viscérale et digestive, la chirurgie orthopédique et traumatologique, la chirurgie gynécologique. Sont aussi présentes une réanimation polyvalente adulte et néonatale et les laboratoires nécessaires à l'exercice de toutes ces spécialités.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Antoine-B%C3%A9cl%C3%A8re</t>
+          <t>Hôpital_Antoine-Béclère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est dans cet établissement que naquit le premier « bébé-éprouvette » de France[3], Amandine, le 24 février 1982, grâce aux équipes du biologiste Jacques Testart et du gynécologue obstétricien René Frydman[4], ainsi que du chef de service Émile Papiernik.
-Les équipes de René Frydman sont aussi à l'origine du premier « bébé-médicament » de France, Umut-Talha, né le 26 janvier 2011 dans l'hôpital[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est dans cet établissement que naquit le premier « bébé-éprouvette » de France, Amandine, le 24 février 1982, grâce aux équipes du biologiste Jacques Testart et du gynécologue obstétricien René Frydman, ainsi que du chef de service Émile Papiernik.
+Les équipes de René Frydman sont aussi à l'origine du premier « bébé-médicament » de France, Umut-Talha, né le 26 janvier 2011 dans l'hôpital.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Antoine-B%C3%A9cl%C3%A8re</t>
+          <t>Hôpital_Antoine-Béclère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital est reconnaissable par la forme caractéristique en trapèze des fenêtres. Il a été construit en 1971 par les architectes Jacques Vial et Henri Pottier. Le bâtiment[6] est surmonté d'un château d'eau conçu par le bureau de design L'Œuf centre d'études.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital est reconnaissable par la forme caractéristique en trapèze des fenêtres. Il a été construit en 1971 par les architectes Jacques Vial et Henri Pottier. Le bâtiment est surmonté d'un château d'eau conçu par le bureau de design L'Œuf centre d'études.
 			L'hôpital Antoine-Béclère en 1988.
 			L'hôpital Antoine-Béclère en 2011.
 </t>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Antoine-B%C3%A9cl%C3%A8re</t>
+          <t>Hôpital_Antoine-Béclère</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,9 +628,11 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Des scènes des films suivants ont été tournées dans cet hôpital[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Des scènes des films suivants ont été tournées dans cet hôpital :
 Peur sur la ville (1975) d'Henri Verneuil ;
 Pourquoi tu pleures ? (2011) de Katia Lewkowicz ;
 Un château en Italie (2013) de Valeria Bruni Tedeschi.</t>
@@ -625,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Antoine-B%C3%A9cl%C3%A8re</t>
+          <t>Hôpital_Antoine-Béclère</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,7 +663,9 @@
           <t>Transports</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital est desservi à la station Hôpital Béclère par le tramway T6 le long de l'avenue du Général-de-Gaulle et par le tramway T10.
 </t>
